--- a/biology/Médecine/OCP_Répartition/OCP_Répartition.xlsx
+++ b/biology/Médecine/OCP_Répartition/OCP_Répartition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OCP_R%C3%A9partition</t>
+          <t>OCP_Répartition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 OCP Répartition, est une entreprise française spécialisée dans la distribution de produits et de services de santé à forte valeur ajoutée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OCP_R%C3%A9partition</t>
+          <t>OCP_Répartition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique de l’entreprise</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’OCP nait en 1924 de la fusion de 3 sociétés familiales exerçant la même activité de «commissaires en spécialités de la place de Paris», les sociétés Piot, Lemoine et Royer, J.Merveau &amp; Cie  et Michelat, Souillard &amp; Cie. 
 Les statuts de la nouvelle société, l’Office Commercial Pharmaceutique, au capital de 12 millions de francs, sont publiés le 31 décembre 1924 dans La Gazette du Palais.
@@ -528,7 +542,7 @@
 1994 à 2004 : La décennie est marquée par l’infléchissement de la croissance du marché sous la contrainte de la maitrise des dépenses de santé. La société est obligée de rationaliser son réseau, d'automatiser ses établissements et de transférer son établissement parisien sur le site de Saint-Ouen en Seine-Saint-Denis.
 En 1998 sont créés le site internet professionnel, lance la base de données documentaire Clickadoc accessible sur cédérom et en ligne et créé le centre d’appels Pharmaliens. En 2003, la maison-mère allemande d'OCP, Gehe, devient Celesio premier distributeur européen présent dans 14 pays. Celesio appartient lui-même à un géant du secteur américain de la distribution pharmaceutique, Mc Kesson. 
 Depuis 2004 : Avec le vieillissement de la population, les progrès thérapeutiques, l’expiration des brevets des médicaments blockbusters, c’est tout le modèle économique de l’industrie et de la distribution du médicament qui est remis en cause. De nouvelles relations s’instaurent entre les laboratoires pharmaceutiques, les officines et les répartiteurs.
-Le 2 novembre 2022[3], le groupe familial indépendant allemand PHOENIX Group a réalisé avec succès l'acquisition de certaines activités de McKesson Europe, à la suite de l'autorisation des autorités de la concurrence pour l'ensemble de la transaction. La clôture a eu lieu le 31 octobre dernier. 
+Le 2 novembre 2022, le groupe familial indépendant allemand PHOENIX Group a réalisé avec succès l'acquisition de certaines activités de McKesson Europe, à la suite de l'autorisation des autorités de la concurrence pour l'ensemble de la transaction. La clôture a eu lieu le 31 octobre dernier. 
 </t>
         </is>
       </c>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OCP_R%C3%A9partition</t>
+          <t>OCP_Répartition</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,10 +571,12 @@
           <t>Métiers de l’OCP</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La distribution de près de trois millions de produits dans les 16 500 pharmacies de ville et d’hôpitaux.
-L’aide à l’installation[4].
+L’aide à l’installation.
 La formation et le conseil via un centre d'appel, des offres documentaires et un site internet.
 Les services aux laboratoires.</t>
         </is>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OCP_R%C3%A9partition</t>
+          <t>OCP_Répartition</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,10 +606,12 @@
           <t>Métier de grossiste répartiteur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grossiste répartiteur est un expert logistique au service de la santé publique[5]. 
-L’accès du produit de santé pour tous serait en effet impossible sans l’implication quotidienne de cet acteur. Il caractérise le lien indispensable entre l’industrie pharmaceutique et les pharmaciens[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grossiste répartiteur est un expert logistique au service de la santé publique. 
+L’accès du produit de santé pour tous serait en effet impossible sans l’implication quotidienne de cet acteur. Il caractérise le lien indispensable entre l’industrie pharmaceutique et les pharmaciens.
 En septembre 2011, les grossistes-répartiteurs représentent 79 % de l’approvisionnement des pharmacies.
 Répartis sur l’ensemble du territoire français, les établissements de Répartition sont garants d’une mission de service public confiée par l’État, garantissant des approvisionnements rapides et sûrs. 
 </t>
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OCP_R%C3%A9partition</t>
+          <t>OCP_Répartition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,16 +642,18 @@
           <t>Bonnes pratiques de distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L’exercice du métier de répartiteur est encadré par une réglementation européenne, transposée en droit français à travers un « Guide des bonnes pratiques de distribution ».  Ce dernier a été transposé en droit français en 2000 et représente une assurance de qualité des opérations réalisées par cet acteur. En France, l’organisme contrôlant l’application de cette réglementation est l’Agence Nationale de Sécurité du Médicament et des produits de santé, l’ANSM (http://ansm.sante.fr) .
-Les grossistes répartiteurs ont six obligations[7] :
-Compter à sa tête un pharmacien responsable et un ou plusieurs pharmaciens assistants[8]
+Les grossistes répartiteurs ont six obligations :
+Compter à sa tête un pharmacien responsable et un ou plusieurs pharmaciens assistants
 Desservir sur son secteur d’activité déclaré toutes les pharmacies qui en font la demande
 Référencer au moins 9/10e des médicaments
 Disposer d’un stock permettant de satisfaire au moins 15 jours d’approvisionnement
 Livrer tout médicament dans les 24 heures
-Assurer un service d’astreinte les week-ends et jours fériés dans les situations d’urgence[9]</t>
+Assurer un service d’astreinte les week-ends et jours fériés dans les situations d’urgence</t>
         </is>
       </c>
     </row>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OCP_R%C3%A9partition</t>
+          <t>OCP_Répartition</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Acteurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les contraintes réglementaires strictes du métier et le contexte économique concurrentiel ont contribué à la concentration du secteur de la répartition pharmaceutique. 
 Quatre acteurs réalisent près de 98 % des ventes : OCP, Alliance Healthcare France, le réseau CERP et Phoenix Pharma.
